--- a/Doppler/270ch/Doppler270ch_click_to_find_center.xlsx
+++ b/Doppler/270ch/Doppler270ch_click_to_find_center.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>x_coordinates</t>
+  </si>
+  <si>
+    <t>y_coordinates</t>
+  </si>
+  <si>
+    <t>x_coordinates</t>
+  </si>
+  <si>
+    <t>y_coordinates</t>
+  </si>
   <si>
     <t>x_coordinates</t>
   </si>
@@ -85,2170 +97,2170 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>10</v>
+        <v>237.33333333333314</v>
       </c>
       <c r="B2" s="0">
-        <v>10</v>
+        <v>973.61741424802108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>10</v>
+        <v>237.33333333333326</v>
       </c>
       <c r="B3" s="0">
-        <v>10</v>
+        <v>960.12137203166219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>10</v>
+        <v>235.52910052910045</v>
       </c>
       <c r="B4" s="0">
-        <v>10</v>
+        <v>945.27572559366763</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>10</v>
+        <v>239.13756613756604</v>
       </c>
       <c r="B5" s="0">
-        <v>10</v>
+        <v>930.43007915567318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>10</v>
+        <v>235.52910052910042</v>
       </c>
       <c r="B6" s="0">
-        <v>10</v>
+        <v>900.73878627968361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>10</v>
+        <v>237.33333333333323</v>
       </c>
       <c r="B7" s="0">
-        <v>10</v>
+        <v>884.54353562005304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>10</v>
+        <v>235.52910052910042</v>
       </c>
       <c r="B8" s="0">
-        <v>10</v>
+        <v>866.99868073878656</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>10</v>
+        <v>233.72486772486764</v>
       </c>
       <c r="B9" s="0">
-        <v>10</v>
+        <v>852.15303430079177</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>10</v>
+        <v>235.52910052910042</v>
       </c>
       <c r="B10" s="0">
-        <v>10</v>
+        <v>837.3073878627971</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>10</v>
+        <v>235.52910052910042</v>
       </c>
       <c r="B11" s="0">
-        <v>10</v>
+        <v>823.81134564643821</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>10</v>
+        <v>233.72486772486764</v>
       </c>
       <c r="B12" s="0">
-        <v>10</v>
+        <v>806.26649076517185</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>10</v>
+        <v>231.92063492063482</v>
       </c>
       <c r="B13" s="0">
-        <v>10</v>
+        <v>792.77044854881296</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>10</v>
+        <v>231.92063492063482</v>
       </c>
       <c r="B14" s="0">
-        <v>10</v>
+        <v>777.92480211081829</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>10</v>
+        <v>230.11640211640201</v>
       </c>
       <c r="B15" s="0">
-        <v>10</v>
+        <v>763.07915567282339</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>10</v>
+        <v>231.92063492063482</v>
       </c>
       <c r="B16" s="0">
-        <v>10</v>
+        <v>746.88390501319293</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>10</v>
+        <v>231.92063492063482</v>
       </c>
       <c r="B17" s="0">
-        <v>10</v>
+        <v>733.38786279683404</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>10</v>
+        <v>230.11640211640201</v>
       </c>
       <c r="B18" s="0">
-        <v>10</v>
+        <v>717.19261213720324</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>10</v>
+        <v>230.11640211640201</v>
       </c>
       <c r="B19" s="0">
-        <v>10</v>
+        <v>702.34696569920868</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>10</v>
+        <v>231.92063492063482</v>
       </c>
       <c r="B20" s="0">
-        <v>10</v>
+        <v>686.15171503957811</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>10</v>
+        <v>230.11640211640213</v>
       </c>
       <c r="B21" s="0">
-        <v>10</v>
+        <v>672.65567282321922</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10</v>
+        <v>230.11640211640201</v>
       </c>
       <c r="B22" s="0">
-        <v>10</v>
+        <v>655.11081794195275</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10</v>
+        <v>231.92063492063494</v>
       </c>
       <c r="B23" s="0">
-        <v>10</v>
+        <v>640.26517150395784</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>10</v>
+        <v>231.92063492063482</v>
       </c>
       <c r="B24" s="0">
-        <v>10</v>
+        <v>625.4195250659634</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>10</v>
+        <v>228.3121693121692</v>
       </c>
       <c r="B25" s="0">
-        <v>10</v>
+        <v>611.92348284960462</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>10</v>
+        <v>230.11640211640201</v>
       </c>
       <c r="B26" s="0">
-        <v>10</v>
+        <v>595.72823218997382</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>10</v>
+        <v>228.3121693121692</v>
       </c>
       <c r="B27" s="0">
-        <v>10</v>
+        <v>582.23218997361494</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>10</v>
+        <v>226.50793650793651</v>
       </c>
       <c r="B28" s="0">
-        <v>10</v>
+        <v>566.03693931398425</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>10</v>
+        <v>228.3121693121692</v>
       </c>
       <c r="B29" s="0">
-        <v>10</v>
+        <v>548.49208443271777</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>10</v>
+        <v>226.50793650793639</v>
       </c>
       <c r="B30" s="0">
-        <v>10</v>
+        <v>534.996042216359</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>10</v>
+        <v>228.3121693121692</v>
       </c>
       <c r="B31" s="0">
-        <v>10</v>
+        <v>520.15039577836433</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>10</v>
+        <v>226.50793650793639</v>
       </c>
       <c r="B32" s="0">
-        <v>10</v>
+        <v>503.95514511873364</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>10</v>
+        <v>226.50793650793651</v>
       </c>
       <c r="B33" s="0">
-        <v>10</v>
+        <v>490.45910290237487</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>10</v>
+        <v>228.3121693121692</v>
       </c>
       <c r="B34" s="0">
-        <v>10</v>
+        <v>474.26385224274418</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>10</v>
+        <v>226.50793650793651</v>
       </c>
       <c r="B35" s="0">
-        <v>10</v>
+        <v>460.7678100263854</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>10</v>
+        <v>226.50793650793639</v>
       </c>
       <c r="B36" s="0">
-        <v>10</v>
+        <v>444.57255936675472</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>10</v>
+        <v>228.3121693121692</v>
       </c>
       <c r="B37" s="0">
-        <v>10</v>
+        <v>429.72691292876004</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>10</v>
+        <v>226.50793650793639</v>
       </c>
       <c r="B38" s="0">
-        <v>10</v>
+        <v>414.88126649076537</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>10</v>
+        <v>228.31216931216932</v>
       </c>
       <c r="B39" s="0">
-        <v>10</v>
+        <v>400.03562005277058</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>10</v>
+        <v>224.7037037037037</v>
       </c>
       <c r="B40" s="0">
-        <v>10</v>
+        <v>385.18997361477591</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>10</v>
+        <v>224.7037037037037</v>
       </c>
       <c r="B41" s="0">
-        <v>10</v>
+        <v>368.99472295514522</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>10</v>
+        <v>226.50793650793651</v>
       </c>
       <c r="B42" s="0">
-        <v>10</v>
+        <v>352.79947229551465</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>10</v>
+        <v>222.89947089947088</v>
       </c>
       <c r="B43" s="0">
-        <v>10</v>
+        <v>337.95382585751997</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>10</v>
+        <v>226.50793650793651</v>
       </c>
       <c r="B44" s="0">
-        <v>10</v>
+        <v>324.45778364116109</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>10</v>
+        <v>225.17647058823533</v>
       </c>
       <c r="B45" s="0">
-        <v>10</v>
+        <v>309.61213720316641</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="B46" s="0">
-        <v>10</v>
+        <v>293.41688654353584</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>10</v>
+        <v>225.17647058823533</v>
       </c>
       <c r="B47" s="0">
-        <v>10</v>
+        <v>277.22163588390515</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>10</v>
+        <v>225.17647058823533</v>
       </c>
       <c r="B48" s="0">
-        <v>10</v>
+        <v>263.72559366754615</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>10</v>
+        <v>225.1764705882353</v>
       </c>
       <c r="B49" s="0">
-        <v>10</v>
+        <v>232.68469656992099</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>10</v>
+        <v>223.35294117647058</v>
       </c>
       <c r="B50" s="0">
-        <v>10</v>
+        <v>216.48944591029033</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>10</v>
+        <v>223.35294117647069</v>
       </c>
       <c r="B51" s="0">
-        <v>10</v>
+        <v>200.29419525065987</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>10</v>
+        <v>223.35294117647064</v>
       </c>
       <c r="B52" s="0">
-        <v>10</v>
+        <v>186.79815303430098</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>10</v>
+        <v>225.17647058823539</v>
       </c>
       <c r="B53" s="0">
-        <v>10</v>
+        <v>170.60290237467029</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>10</v>
+        <v>221.52941176470586</v>
       </c>
       <c r="B54" s="0">
-        <v>10</v>
+        <v>157.10686015831129</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>10</v>
+        <v>225.17647058823533</v>
       </c>
       <c r="B55" s="0">
-        <v>10</v>
+        <v>123.36675461741436</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>10</v>
+        <v>225.1764705882353</v>
       </c>
       <c r="B56" s="0">
-        <v>10</v>
+        <v>108.52110817941946</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>10</v>
+        <v>223.35294117647067</v>
       </c>
       <c r="B57" s="0">
-        <v>10</v>
+        <v>92.325857519788883</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>10</v>
+        <v>225.17647058823536</v>
       </c>
       <c r="B58" s="0">
-        <v>10</v>
+        <v>78.829815303429996</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>10</v>
+        <v>225.17647058823533</v>
       </c>
       <c r="B59" s="0">
-        <v>10</v>
+        <v>63.984168865435322</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>10</v>
+        <v>223.35294117647061</v>
       </c>
       <c r="B60" s="0">
-        <v>10</v>
+        <v>47.788918205804748</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>10</v>
+        <v>223.35294117647061</v>
       </c>
       <c r="B61" s="0">
-        <v>10</v>
+        <v>35.642480211081875</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>10</v>
+        <v>374.70588235294122</v>
       </c>
       <c r="B62" s="0">
-        <v>10</v>
+        <v>992.51187335092402</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>10</v>
+        <v>371.05882352941182</v>
       </c>
       <c r="B63" s="0">
-        <v>10</v>
+        <v>974.96701846965743</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>10</v>
+        <v>372.88235294117646</v>
       </c>
       <c r="B64" s="0">
-        <v>10</v>
+        <v>961.47097625329866</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>10</v>
+        <v>374.70588235294122</v>
       </c>
       <c r="B65" s="0">
-        <v>10</v>
+        <v>946.62532981530399</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>10</v>
+        <v>372.88235294117646</v>
       </c>
       <c r="B66" s="0">
-        <v>10</v>
+        <v>930.43007915567341</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>10</v>
+        <v>372.88235294117652</v>
       </c>
       <c r="B67" s="0">
-        <v>10</v>
+        <v>899.38918205804794</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>10</v>
+        <v>369.23529411764707</v>
       </c>
       <c r="B68" s="0">
-        <v>10</v>
+        <v>885.89313984168916</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>10</v>
+        <v>371.05882352941182</v>
       </c>
       <c r="B69" s="0">
-        <v>10</v>
+        <v>871.04749340369449</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>10</v>
+        <v>371.05882352941182</v>
       </c>
       <c r="B70" s="0">
-        <v>10</v>
+        <v>856.2018469656997</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>10</v>
+        <v>369.23529411764713</v>
       </c>
       <c r="B71" s="0">
-        <v>10</v>
+        <v>840.0065963060689</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>10</v>
+        <v>371.05882352941182</v>
       </c>
       <c r="B72" s="0">
-        <v>10</v>
+        <v>825.16094986807434</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>10</v>
+        <v>369.23529411764707</v>
       </c>
       <c r="B73" s="0">
-        <v>10</v>
+        <v>808.96569920844365</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>10</v>
+        <v>369.23529411764713</v>
       </c>
       <c r="B74" s="0">
-        <v>10</v>
+        <v>794.12005277044886</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>10</v>
+        <v>371.05882352941182</v>
       </c>
       <c r="B75" s="0">
-        <v>10</v>
+        <v>777.92480211081829</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>10</v>
+        <v>369.23529411764713</v>
       </c>
       <c r="B76" s="0">
-        <v>10</v>
+        <v>763.07915567282362</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>10</v>
+        <v>371.05882352941177</v>
       </c>
       <c r="B77" s="0">
-        <v>10</v>
+        <v>749.58311345646484</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>10</v>
+        <v>369.23529411764707</v>
       </c>
       <c r="B78" s="0">
-        <v>10</v>
+        <v>734.73746701847017</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>10</v>
+        <v>367.41176470588238</v>
       </c>
       <c r="B79" s="0">
-        <v>10</v>
+        <v>717.19261213720347</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>10</v>
+        <v>369.23529411764707</v>
       </c>
       <c r="B80" s="0">
-        <v>10</v>
+        <v>702.34696569920879</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>10</v>
+        <v>369.23529411764713</v>
       </c>
       <c r="B81" s="0">
-        <v>10</v>
+        <v>688.85092348284979</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>10</v>
+        <v>367.41176470588243</v>
       </c>
       <c r="B82" s="0">
-        <v>10</v>
+        <v>674.00527704485535</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>10</v>
+        <v>367.41176470588238</v>
       </c>
       <c r="B83" s="0">
-        <v>10</v>
+        <v>656.46042216358876</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>10</v>
+        <v>369.23529411764707</v>
       </c>
       <c r="B84" s="0">
-        <v>10</v>
+        <v>642.96437994722987</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>10</v>
+        <v>367.41176470588238</v>
       </c>
       <c r="B85" s="0">
-        <v>10</v>
+        <v>628.1187335092352</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>10</v>
+        <v>365.58823529411768</v>
       </c>
       <c r="B86" s="0">
-        <v>10</v>
+        <v>609.22427440633271</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>10</v>
+        <v>367.41176470588238</v>
       </c>
       <c r="B87" s="0">
-        <v>10</v>
+        <v>595.72823218997405</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>10</v>
+        <v>365.58823529411762</v>
       </c>
       <c r="B88" s="0">
-        <v>10</v>
+        <v>582.23218997361505</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>10</v>
+        <v>365.58823529411762</v>
       </c>
       <c r="B89" s="0">
-        <v>10</v>
+        <v>566.03693931398448</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>10</v>
+        <v>365.58823529411762</v>
       </c>
       <c r="B90" s="0">
-        <v>10</v>
+        <v>551.19129287598969</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>10</v>
+        <v>367.41176470588243</v>
       </c>
       <c r="B91" s="0">
-        <v>10</v>
+        <v>537.69525065963103</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>10</v>
+        <v>367.41176470588238</v>
       </c>
       <c r="B92" s="0">
-        <v>10</v>
+        <v>506.65435356200567</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>10</v>
+        <v>363.76470588235298</v>
       </c>
       <c r="B93" s="0">
-        <v>10</v>
+        <v>489.10949868073908</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>10</v>
+        <v>365.58823529411768</v>
       </c>
       <c r="B94" s="0">
-        <v>10</v>
+        <v>476.96306068601609</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>10</v>
+        <v>367.41176470588243</v>
       </c>
       <c r="B95" s="0">
-        <v>10</v>
+        <v>460.76781002638552</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>10</v>
+        <v>365.58823529411774</v>
       </c>
       <c r="B96" s="0">
-        <v>10</v>
+        <v>443.22295514511904</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>10</v>
+        <v>365.58823529411768</v>
       </c>
       <c r="B97" s="0">
-        <v>10</v>
+        <v>431.07651715039606</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>10</v>
+        <v>365.58823529411774</v>
       </c>
       <c r="B98" s="0">
-        <v>10</v>
+        <v>414.88126649076537</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>10</v>
+        <v>363.76470588235298</v>
       </c>
       <c r="B99" s="0">
-        <v>10</v>
+        <v>398.6860158311348</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>10</v>
+        <v>367.41176470588238</v>
       </c>
       <c r="B100" s="0">
-        <v>10</v>
+        <v>368.99472295514533</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>10</v>
+        <v>365.58823529411774</v>
       </c>
       <c r="B101" s="0">
-        <v>10</v>
+        <v>352.79947229551476</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>10</v>
+        <v>365.58823529411768</v>
       </c>
       <c r="B102" s="0">
-        <v>10</v>
+        <v>339.30343007915587</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>10</v>
+        <v>367.41176470588238</v>
       </c>
       <c r="B103" s="0">
-        <v>10</v>
+        <v>323.1081794195253</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>10</v>
+        <v>365.58823529411768</v>
       </c>
       <c r="B104" s="0">
-        <v>10</v>
+        <v>308.2625329815304</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>10</v>
+        <v>363.76470588235293</v>
       </c>
       <c r="B105" s="0">
-        <v>10</v>
+        <v>292.06728232189994</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>10</v>
+        <v>363.76470588235298</v>
       </c>
       <c r="B106" s="0">
-        <v>10</v>
+        <v>278.57124010554105</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>10</v>
+        <v>361.94117647058829</v>
       </c>
       <c r="B107" s="0">
-        <v>10</v>
+        <v>262.37598944591036</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>10</v>
+        <v>360.11764705882354</v>
       </c>
       <c r="B108" s="0">
-        <v>10</v>
+        <v>246.18073878627976</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>10</v>
+        <v>363.76470588235298</v>
       </c>
       <c r="B109" s="0">
-        <v>10</v>
+        <v>231.33509234828509</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>10</v>
+        <v>361.94117647058829</v>
       </c>
       <c r="B110" s="0">
-        <v>10</v>
+        <v>216.48944591029044</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>10</v>
+        <v>361.94117647058823</v>
       </c>
       <c r="B111" s="0">
-        <v>10</v>
+        <v>184.09894459102907</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>10</v>
+        <v>361.94117647058835</v>
       </c>
       <c r="B112" s="0">
-        <v>10</v>
+        <v>170.60290237467041</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>10</v>
+        <v>360.11764705882354</v>
       </c>
       <c r="B113" s="0">
-        <v>10</v>
+        <v>153.05804749340371</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>10</v>
+        <v>361.94117647058835</v>
       </c>
       <c r="B114" s="0">
-        <v>10</v>
+        <v>138.21240105540892</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>10</v>
+        <v>365.58823529411768</v>
       </c>
       <c r="B115" s="0">
-        <v>10</v>
+        <v>123.36675461741424</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>10</v>
+        <v>363.76470588235298</v>
       </c>
       <c r="B116" s="0">
-        <v>10</v>
+        <v>108.52110817941946</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>10</v>
+        <v>361.94117647058829</v>
       </c>
       <c r="B117" s="0">
-        <v>10</v>
+        <v>93.675461741424897</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>10</v>
+        <v>363.76470588235293</v>
       </c>
       <c r="B118" s="0">
-        <v>10</v>
+        <v>77.480211081794323</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>10</v>
+        <v>363.76470588235298</v>
       </c>
       <c r="B119" s="0">
-        <v>10</v>
+        <v>63.984168865435322</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>10</v>
+        <v>365.58823529411774</v>
       </c>
       <c r="B120" s="0">
-        <v>10</v>
+        <v>49.138522427440648</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>10</v>
+        <v>361.94117647058823</v>
       </c>
       <c r="B121" s="0">
-        <v>10</v>
+        <v>32.943271767810074</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>10</v>
+        <v>515.11764705882354</v>
       </c>
       <c r="B122" s="0">
-        <v>10</v>
+        <v>976.31662269129322</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>10</v>
+        <v>511.47058823529414</v>
       </c>
       <c r="B123" s="0">
-        <v>10</v>
+        <v>962.82058047493456</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>10</v>
+        <v>511.47058823529414</v>
       </c>
       <c r="B124" s="0">
-        <v>10</v>
+        <v>946.62532981530387</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>10</v>
+        <v>511.4705882352942</v>
       </c>
       <c r="B125" s="0">
-        <v>10</v>
+        <v>933.1292875989451</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>10</v>
+        <v>511.4705882352942</v>
       </c>
       <c r="B126" s="0">
-        <v>10</v>
+        <v>918.28364116095042</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>10</v>
+        <v>511.47058823529414</v>
       </c>
       <c r="B127" s="0">
-        <v>10</v>
+        <v>900.73878627968384</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>10</v>
+        <v>509.64705882352945</v>
       </c>
       <c r="B128" s="0">
-        <v>10</v>
+        <v>885.89313984168916</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>10</v>
+        <v>507.82352941176475</v>
       </c>
       <c r="B129" s="0">
-        <v>10</v>
+        <v>873.74670184696618</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>10</v>
+        <v>509.64705882352945</v>
       </c>
       <c r="B130" s="0">
-        <v>10</v>
+        <v>856.20184696569959</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>10</v>
+        <v>509.64705882352951</v>
       </c>
       <c r="B131" s="0">
-        <v>10</v>
+        <v>841.35620052770491</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>10</v>
+        <v>509.64705882352951</v>
       </c>
       <c r="B132" s="0">
-        <v>10</v>
+        <v>825.16094986807434</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>10</v>
+        <v>509.64705882352945</v>
       </c>
       <c r="B133" s="0">
-        <v>10</v>
+        <v>808.96569920844365</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>10</v>
+        <v>507.82352941176475</v>
       </c>
       <c r="B134" s="0">
-        <v>10</v>
+        <v>794.12005277044909</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>10</v>
+        <v>509.64705882352951</v>
       </c>
       <c r="B135" s="0">
-        <v>10</v>
+        <v>779.27440633245419</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>10</v>
+        <v>507.82352941176475</v>
       </c>
       <c r="B136" s="0">
-        <v>10</v>
+        <v>763.07915567282362</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>10</v>
+        <v>506</v>
       </c>
       <c r="B137" s="0">
-        <v>10</v>
+        <v>749.58311345646484</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>10</v>
+        <v>507.43681762879498</v>
       </c>
       <c r="B138" s="0">
-        <v>10</v>
+        <v>733.41171263171645</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>10</v>
+        <v>503.78975880526559</v>
       </c>
       <c r="B139" s="0">
-        <v>10</v>
+        <v>719.91567041535768</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>10</v>
+        <v>505.61328821703023</v>
       </c>
       <c r="B140" s="0">
-        <v>10</v>
+        <v>705.07002397736301</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>10</v>
+        <v>507.43681762879498</v>
       </c>
       <c r="B141" s="0">
-        <v>10</v>
+        <v>688.87477331773243</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>10</v>
+        <v>505.61328821703023</v>
       </c>
       <c r="B142" s="0">
-        <v>10</v>
+        <v>675.37873110137343</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>10</v>
+        <v>505.61328821703023</v>
       </c>
       <c r="B143" s="0">
-        <v>10</v>
+        <v>659.18348044174286</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>10</v>
+        <v>503.78975880526559</v>
       </c>
       <c r="B144" s="0">
-        <v>10</v>
+        <v>644.33783400374818</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>10</v>
+        <v>503.78975880526559</v>
       </c>
       <c r="B145" s="0">
-        <v>10</v>
+        <v>629.49218756575351</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>10</v>
+        <v>505.61328821703023</v>
       </c>
       <c r="B146" s="0">
-        <v>10</v>
+        <v>597.10168624649214</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>10</v>
+        <v>503.78975880526559</v>
       </c>
       <c r="B147" s="0">
-        <v>10</v>
+        <v>579.55683136522566</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>10</v>
+        <v>503.78975880526559</v>
       </c>
       <c r="B148" s="0">
-        <v>10</v>
+        <v>566.06078914886689</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>10</v>
+        <v>503.78975880526559</v>
       </c>
       <c r="B149" s="0">
-        <v>10</v>
+        <v>552.564746932508</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>10</v>
+        <v>503.78975880526559</v>
       </c>
       <c r="B150" s="0">
-        <v>10</v>
+        <v>537.71910049451333</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>10</v>
+        <v>501.96622939350084</v>
       </c>
       <c r="B151" s="0">
-        <v>10</v>
+        <v>521.52384983488264</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>10</v>
+        <v>649.67211174644194</v>
       </c>
       <c r="B152" s="0">
-        <v>10</v>
+        <v>993.88532740744222</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>10</v>
+        <v>649.67211174644194</v>
       </c>
       <c r="B153" s="0">
-        <v>10</v>
+        <v>979.03968096944755</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>10</v>
+        <v>651.49564115820681</v>
       </c>
       <c r="B154" s="0">
-        <v>10</v>
+        <v>947.99878387182218</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>10</v>
+        <v>651.49564115820681</v>
       </c>
       <c r="B155" s="0">
-        <v>10</v>
+        <v>931.80353321219161</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>10</v>
+        <v>649.67211174644194</v>
       </c>
       <c r="B156" s="0">
-        <v>10</v>
+        <v>916.95788677419682</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>10</v>
+        <v>646.02505292291266</v>
       </c>
       <c r="B157" s="0">
-        <v>10</v>
+        <v>903.46184455783805</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>10</v>
+        <v>647.8485823346773</v>
       </c>
       <c r="B158" s="0">
-        <v>10</v>
+        <v>887.26659389820736</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>10</v>
+        <v>646.02505292291266</v>
       </c>
       <c r="B159" s="0">
-        <v>10</v>
+        <v>871.07134323857679</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>10</v>
+        <v>649.67211174644194</v>
       </c>
       <c r="B160" s="0">
-        <v>10</v>
+        <v>856.225696800582</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>10</v>
+        <v>647.8485823346773</v>
       </c>
       <c r="B161" s="0">
-        <v>10</v>
+        <v>842.72965458422323</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>10</v>
+        <v>646.02505292291266</v>
       </c>
       <c r="B162" s="0">
-        <v>10</v>
+        <v>825.18479970295675</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>10</v>
+        <v>644.2015235111478</v>
       </c>
       <c r="B163" s="0">
-        <v>10</v>
+        <v>811.68875748659786</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>10</v>
+        <v>646.02505292291266</v>
       </c>
       <c r="B164" s="0">
-        <v>10</v>
+        <v>795.49350682696718</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>10</v>
+        <v>644.2015235111478</v>
       </c>
       <c r="B165" s="0">
-        <v>10</v>
+        <v>780.6478603889725</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>10</v>
+        <v>646.02505292291266</v>
       </c>
       <c r="B166" s="0">
-        <v>10</v>
+        <v>767.15181817261373</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>10</v>
+        <v>646.02505292291266</v>
       </c>
       <c r="B167" s="0">
-        <v>10</v>
+        <v>750.95656751298304</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>10</v>
+        <v>647.8485823346773</v>
       </c>
       <c r="B168" s="0">
-        <v>10</v>
+        <v>736.11092107498825</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>10</v>
+        <v>644.2015235111478</v>
       </c>
       <c r="B169" s="0">
-        <v>10</v>
+        <v>706.41962819899891</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>10</v>
+        <v>644.2015235111478</v>
       </c>
       <c r="B170" s="0">
-        <v>10</v>
+        <v>687.52516909609653</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>10</v>
+        <v>644.2015235111478</v>
       </c>
       <c r="B171" s="0">
-        <v>10</v>
+        <v>674.02912687973765</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>10</v>
+        <v>646.02505292291266</v>
       </c>
       <c r="B172" s="0">
-        <v>10</v>
+        <v>659.18348044174286</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>10</v>
+        <v>644.2015235111478</v>
       </c>
       <c r="B173" s="0">
-        <v>10</v>
+        <v>642.98822978211228</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>10</v>
+        <v>646.02505292291266</v>
       </c>
       <c r="B174" s="0">
-        <v>10</v>
+        <v>597.10168624649214</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>10</v>
+        <v>640.55446468761852</v>
       </c>
       <c r="B175" s="0">
-        <v>10</v>
+        <v>580.90643558686156</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>10</v>
+        <v>642.37799409938316</v>
       </c>
       <c r="B176" s="0">
-        <v>10</v>
+        <v>567.41039337050279</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>10</v>
+        <v>642.37799409938316</v>
       </c>
       <c r="B177" s="0">
-        <v>10</v>
+        <v>553.9143511541439</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>10</v>
+        <v>640.55446468761852</v>
       </c>
       <c r="B178" s="0">
-        <v>10</v>
+        <v>536.36949627287743</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>10</v>
+        <v>640.55446468761852</v>
       </c>
       <c r="B179" s="0">
-        <v>10</v>
+        <v>459.44205563963203</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>10</v>
+        <v>640.55446468761852</v>
       </c>
       <c r="B180" s="0">
-        <v>10</v>
+        <v>447.29561764490904</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>10</v>
+        <v>638.73093527585388</v>
       </c>
       <c r="B181" s="0">
-        <v>10</v>
+        <v>431.10036698527836</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>10</v>
+        <v>790.08387645232438</v>
       </c>
       <c r="B182" s="0">
-        <v>10</v>
+        <v>979.03968096944755</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>10</v>
+        <v>786.99317172095891</v>
       </c>
       <c r="B183" s="0">
-        <v>10</v>
+        <v>947.99548976560129</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>10</v>
+        <v>788.79740452519161</v>
       </c>
       <c r="B184" s="0">
-        <v>10</v>
+        <v>934.49944754924252</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>10</v>
+        <v>785.18893891672622</v>
       </c>
       <c r="B185" s="0">
-        <v>10</v>
+        <v>918.30419688961194</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>10</v>
+        <v>786.99317172095891</v>
       </c>
       <c r="B186" s="0">
-        <v>10</v>
+        <v>903.45855045161716</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>10</v>
+        <v>788.79740452519161</v>
       </c>
       <c r="B187" s="0">
-        <v>10</v>
+        <v>889.96250823525827</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>10</v>
+        <v>785.18893891672622</v>
       </c>
       <c r="B188" s="0">
-        <v>10</v>
+        <v>857.57200691599712</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>10</v>
+        <v>783.38470611249363</v>
       </c>
       <c r="B189" s="0">
-        <v>10</v>
+        <v>842.72689465738972</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>10</v>
+        <v>786.99317172095925</v>
       </c>
       <c r="B190" s="0">
-        <v>10</v>
+        <v>827.88124821939493</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>10</v>
+        <v>785.18893891672656</v>
       </c>
       <c r="B191" s="0">
-        <v>10</v>
+        <v>811.68599755976436</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>10</v>
+        <v>783.38470611249363</v>
       </c>
       <c r="B192" s="0">
-        <v>10</v>
+        <v>795.49074690013367</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>10</v>
+        <v>781.58047330826093</v>
       </c>
       <c r="B193" s="0">
-        <v>10</v>
+        <v>768.49866246741612</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>10</v>
+        <v>785.18893891672656</v>
       </c>
       <c r="B194" s="0">
-        <v>10</v>
+        <v>750.95380758614954</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>10</v>
+        <v>781.58047330826093</v>
       </c>
       <c r="B195" s="0">
-        <v>10</v>
+        <v>736.10816114815486</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>10</v>
+        <v>781.58047330826093</v>
       </c>
       <c r="B196" s="0">
-        <v>10</v>
+        <v>721.26251471016008</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>10</v>
+        <v>781.58047330826093</v>
       </c>
       <c r="B197" s="0">
-        <v>10</v>
+        <v>688.87201339089893</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>10</v>
+        <v>785.18893891672656</v>
       </c>
       <c r="B198" s="0">
-        <v>10</v>
+        <v>674.02636695290414</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>10</v>
+        <v>781.58047330826093</v>
       </c>
       <c r="B199" s="0">
-        <v>10</v>
+        <v>659.18072051490935</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>10</v>
+        <v>779.77624050402801</v>
       </c>
       <c r="B200" s="0">
-        <v>10</v>
+        <v>644.33507407691468</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>10</v>
+        <v>781.58047330826093</v>
       </c>
       <c r="B201" s="0">
-        <v>10</v>
+        <v>629.48942763892001</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>10</v>
+        <v>779.77624050402801</v>
       </c>
       <c r="B202" s="0">
-        <v>10</v>
+        <v>611.94457275765353</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>10</v>
+        <v>779.77624050402801</v>
       </c>
       <c r="B203" s="0">
-        <v>10</v>
+        <v>598.44853054129464</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>10</v>
+        <v>777.97200769979531</v>
       </c>
       <c r="B204" s="0">
-        <v>10</v>
+        <v>583.60288410329986</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>10</v>
+        <v>779.77624050402801</v>
       </c>
       <c r="B205" s="0">
-        <v>10</v>
+        <v>567.40763344366928</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>10</v>
+        <v>779.77624050402801</v>
       </c>
       <c r="B206" s="0">
-        <v>10</v>
+        <v>552.56198700567461</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>10</v>
+        <v>779.77624050402801</v>
       </c>
       <c r="B207" s="0">
-        <v>10</v>
+        <v>506.67544347005446</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>10</v>
+        <v>777.97200769979531</v>
       </c>
       <c r="B208" s="0">
-        <v>10</v>
+        <v>460.78889993443443</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>10</v>
+        <v>777.97200769979531</v>
       </c>
       <c r="B209" s="0">
-        <v>10</v>
+        <v>429.74800283680906</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>10</v>
+        <v>776.16777489556239</v>
       </c>
       <c r="B210" s="0">
-        <v>10</v>
+        <v>413.55275217717849</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>10</v>
+        <v>776.16777489556239</v>
       </c>
       <c r="B211" s="0">
-        <v>10</v>
+        <v>369.01581286319424</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>10</v>
+        <v>501.92438865217605</v>
       </c>
       <c r="B212" s="0">
-        <v>10</v>
+        <v>506.67544347005446</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>10</v>
+        <v>503.72862145640886</v>
       </c>
       <c r="B213" s="0">
-        <v>10</v>
+        <v>490.48019281042389</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>10</v>
+        <v>501.92438865217605</v>
       </c>
       <c r="B214" s="0">
-        <v>10</v>
+        <v>475.63454637242921</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>10</v>
+        <v>503.72862145640886</v>
       </c>
       <c r="B215" s="0">
-        <v>10</v>
+        <v>460.78889993443443</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>10</v>
+        <v>501.92438865217605</v>
       </c>
       <c r="B216" s="0">
-        <v>10</v>
+        <v>445.94325349643975</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>10</v>
+        <v>503.72862145640886</v>
       </c>
       <c r="B217" s="0">
-        <v>10</v>
+        <v>429.74800283680906</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>10</v>
+        <v>501.67460317460313</v>
       </c>
       <c r="B218" s="0">
-        <v>10</v>
+        <v>414.65013273548414</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>10</v>
+        <v>503.47883597883595</v>
       </c>
       <c r="B219" s="0">
-        <v>10</v>
+        <v>399.80448629748935</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>10</v>
+        <v>503.47883597883595</v>
       </c>
       <c r="B220" s="0">
-        <v>10</v>
+        <v>384.95883985949467</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>10</v>
+        <v>501.67460317460313</v>
       </c>
       <c r="B221" s="0">
-        <v>10</v>
+        <v>353.91794276186931</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>10</v>
+        <v>501.67460317460313</v>
       </c>
       <c r="B222" s="0">
-        <v>10</v>
+        <v>337.72269210223874</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>10</v>
+        <v>501.67460317460313</v>
       </c>
       <c r="B223" s="0">
-        <v>10</v>
+        <v>322.87704566424395</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>10</v>
+        <v>503.47883597883595</v>
       </c>
       <c r="B224" s="0">
-        <v>10</v>
+        <v>309.38100344788518</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>10</v>
+        <v>501.67460317460313</v>
       </c>
       <c r="B225" s="0">
-        <v>10</v>
+        <v>293.18575278825449</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>10</v>
+        <v>503.47883597883595</v>
       </c>
       <c r="B226" s="0">
-        <v>10</v>
+        <v>262.14485569062924</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>10</v>
+        <v>503.47883597883595</v>
       </c>
       <c r="B227" s="0">
-        <v>10</v>
+        <v>245.94960503099853</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>10</v>
+        <v>501.67460317460313</v>
       </c>
       <c r="B228" s="0">
-        <v>10</v>
+        <v>231.10395859300385</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>10</v>
+        <v>499.87037037037032</v>
       </c>
       <c r="B229" s="0">
-        <v>10</v>
+        <v>204.11187416028619</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>10</v>
+        <v>501.67460317460313</v>
       </c>
       <c r="B230" s="0">
-        <v>10</v>
+        <v>169.02216439775324</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>10</v>
+        <v>501.67460317460313</v>
       </c>
       <c r="B231" s="0">
-        <v>10</v>
+        <v>154.17651795975846</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>10</v>
+        <v>503.47883597883595</v>
       </c>
       <c r="B232" s="0">
-        <v>10</v>
+        <v>137.98126730012788</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>10</v>
+        <v>501.67460317460313</v>
       </c>
       <c r="B233" s="0">
-        <v>10</v>
+        <v>124.485225083769</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>10</v>
+        <v>499.87037037037032</v>
       </c>
       <c r="B234" s="0">
-        <v>10</v>
+        <v>109.63957864577432</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>10</v>
+        <v>501.67460317460313</v>
       </c>
       <c r="B235" s="0">
-        <v>10</v>
+        <v>93.444327986143747</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>10</v>
+        <v>501.67460317460313</v>
       </c>
       <c r="B236" s="0">
-        <v>10</v>
+        <v>77.24907732651306</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>10</v>
+        <v>501.67460317460313</v>
       </c>
       <c r="B237" s="0">
-        <v>10</v>
+        <v>65.102639331790186</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>10</v>
+        <v>501.67460317460313</v>
       </c>
       <c r="B238" s="0">
-        <v>10</v>
+        <v>47.557784450523606</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>10</v>
+        <v>501.67460317460313</v>
       </c>
       <c r="B239" s="0">
-        <v>10</v>
+        <v>31.362533790893032</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>10</v>
+        <v>640.60052910052912</v>
       </c>
       <c r="B240" s="0">
-        <v>10</v>
+        <v>305.33219078297748</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>10</v>
+        <v>640.60052910052912</v>
       </c>
       <c r="B241" s="0">
-        <v>10</v>
+        <v>293.18575278825449</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>10</v>
+        <v>638.79629629629619</v>
       </c>
       <c r="B242" s="0">
-        <v>10</v>
+        <v>278.34010635025982</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>10</v>
+        <v>638.79629629629619</v>
       </c>
       <c r="B243" s="0">
-        <v>10</v>
+        <v>247.29920925263443</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>10</v>
+        <v>638.79629629629619</v>
       </c>
       <c r="B244" s="0">
-        <v>10</v>
+        <v>231.10395859300385</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>10</v>
+        <v>640.60052910052912</v>
       </c>
       <c r="B245" s="0">
-        <v>10</v>
+        <v>201.41266571701439</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>10</v>
+        <v>638.79629629629619</v>
       </c>
       <c r="B246" s="0">
-        <v>10</v>
+        <v>185.21741505738382</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>10</v>
+        <v>636.99206349206349</v>
       </c>
       <c r="B247" s="0">
-        <v>10</v>
+        <v>171.72137284102493</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>10</v>
+        <v>636.99206349206349</v>
       </c>
       <c r="B248" s="0">
-        <v>10</v>
+        <v>155.52612218139436</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>10</v>
+        <v>636.99206349206349</v>
       </c>
       <c r="B249" s="0">
-        <v>10</v>
+        <v>140.68047574339968</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>10</v>
+        <v>638.79629629629619</v>
       </c>
       <c r="B250" s="0">
-        <v>10</v>
+        <v>123.13562086213309</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>10</v>
+        <v>642.40476190476181</v>
       </c>
       <c r="B251" s="0">
-        <v>10</v>
+        <v>108.28997442413842</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>10</v>
+        <v>640.60052910052912</v>
       </c>
       <c r="B252" s="0">
-        <v>10</v>
+        <v>92.094723764507847</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>10</v>
+        <v>640.60052910052912</v>
       </c>
       <c r="B253" s="0">
-        <v>10</v>
+        <v>78.59868154814896</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>10</v>
+        <v>640.60052910052912</v>
       </c>
       <c r="B254" s="0">
-        <v>10</v>
+        <v>63.753035110154293</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>10</v>
+        <v>640.60052910052912</v>
       </c>
       <c r="B255" s="0">
-        <v>10</v>
+        <v>47.557784450523606</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>10</v>
+        <v>777.72222222222229</v>
       </c>
       <c r="B256" s="0">
-        <v>10</v>
+        <v>355.26754698350521</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>10</v>
+        <v>777.72222222222229</v>
       </c>
       <c r="B257" s="0">
-        <v>10</v>
+        <v>339.07229632387464</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>10</v>
+        <v>777.72222222222229</v>
       </c>
       <c r="B258" s="0">
-        <v>10</v>
+        <v>324.22664988587985</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>10</v>
+        <v>779.52645502645498</v>
       </c>
       <c r="B259" s="0">
-        <v>10</v>
+        <v>308.03139922624928</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>10</v>
+        <v>777.72222222222229</v>
       </c>
       <c r="B260" s="0">
-        <v>10</v>
+        <v>291.8361485666187</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>10</v>
+        <v>779.52645502645498</v>
       </c>
       <c r="B261" s="0">
-        <v>10</v>
+        <v>279.69327176781007</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>10</v>
+        <v>775.91798941798936</v>
       </c>
       <c r="B262" s="0">
-        <v>10</v>
+        <v>260.7988126649077</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>10</v>
+        <v>777.72222222222229</v>
       </c>
       <c r="B263" s="0">
-        <v>10</v>
+        <v>231.10751978891824</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>10</v>
+        <v>775.91798941798936</v>
       </c>
       <c r="B264" s="0">
-        <v>10</v>
+        <v>217.61147757255935</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>10</v>
+        <v>779.52645502645498</v>
       </c>
       <c r="B265" s="0">
-        <v>10</v>
+        <v>155.52968337730874</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>10</v>
+        <v>779.52645502645498</v>
       </c>
       <c r="B266" s="0">
-        <v>10</v>
+        <v>139.33443271767806</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>10</v>
+        <v>777.72222222222229</v>
       </c>
       <c r="B267" s="0">
-        <v>10</v>
+        <v>124.48878627968338</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>10</v>
+        <v>777.72222222222229</v>
       </c>
       <c r="B268" s="0">
-        <v>10</v>
+        <v>108.29353562005281</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>10</v>
+        <v>783.1349206349206</v>
       </c>
       <c r="B269" s="0">
-        <v>10</v>
+        <v>81.301451187335033</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>10</v>
+        <v>777.7675857217688</v>
       </c>
       <c r="B270" s="0">
-        <v>10</v>
+        <v>62.77249933216666</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>779.52645502645498</v>
+        <v>779.81280246098095</v>
       </c>
       <c r="B271" s="0">
-        <v>79.951846965699133</v>
+        <v>47.357692666748555</v>
       </c>
     </row>
   </sheetData>
